--- a/eightyk_hours/static/proposals.xlsx
+++ b/eightyk_hours/static/proposals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frauke/GithubRepoTree/eightyk_hours/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22ECB21-A8C1-CC4C-A2F9-03B49A5C92E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A32606E-C083-F54B-AF17-83E0898F713C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{940616D7-EDEC-7E44-B804-7D71361DDBFF}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Kreislaufprinzipien in Industrie &amp; Handel verankern:  Anteil an Mehrwegverpackungen erhöhen (bspw. Bierflaschen)</t>
   </si>
   <si>
-    <t>Kreislaufprinzipien in Industrie &amp; Handel verankern:  ○	Eine (brick-and-mortar) Plattform aufbauen, die Mehrwegverpackungen für verschiedene Produkte anbietet und das Pfandsystem selbst verwaltet, d.h. Plattform verkauft saubere Mehrwegverpackung an Produktanbieter und Endverbraucher retourniert Mehrwegverpackung an Plattform, um CO2 einzusparen</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Abonnements von Smart-home Gadgets zur Energieeffizienz anbieten</t>
   </si>
   <si>
-    <t>Algen als Lösung vieler Nachhaltigkeitsprobleme entwickeln &amp; marktfähig machen (https://www.sciencedirect.com/science/article/pii/S006522962100015X?fbclid=IwAR3cBDneBkIgIZBpJX2rAipUSTyfoFmoMJw73Aej2X5cI6-pmqLAzZDJxOc#f0020 )</t>
-  </si>
-  <si>
     <t>Plastik</t>
   </si>
   <si>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>Politiktinder/menschnezusammenbringende Festivals - Politik nahbarer machen: Als Meinungsabfrage tool ohne zuviel Sideinfos; Gremienarbeit erleichtern - weniger Zeitaufwand; um Barrieren zu reduzieren - online nutzbar, klareres Layout/interaktiv etc.; Prioritäten durch swipen setzen und dadurch dann weniger Infoflut; Als Diskussionsangebot (Diskussionsrunde zusammen swipen)</t>
+  </si>
+  <si>
+    <t>Algen als Lösung vieler Nachhaltigkeitsprobleme entwickeln &amp; marktfähig machen (https://doi.org/10.1016/bs.abr.2021.01.003 )</t>
+  </si>
+  <si>
+    <t>Kreislaufprinzipien in Industrie &amp; Handel verankern: Eine (brick-and-mortar) Plattform aufbauen, die Mehrwegverpackungen für verschiedene Produkte anbietet und das Pfandsystem selbst verwaltet, d.h. Plattform verkauft saubere Mehrwegverpackung an Produktanbieter und Endverbraucher retourniert Mehrwegverpackung an Plattform, um CO2 einzusparen</t>
   </si>
 </sst>
 </file>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEBF996-5FBF-724C-B8CB-07CE2A91732C}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A46" sqref="A38:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -720,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -731,10 +731,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -742,10 +742,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -753,10 +753,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -764,10 +764,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -775,10 +775,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -786,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -797,10 +797,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -808,10 +808,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -819,10 +819,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -830,10 +830,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -841,10 +841,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -852,10 +852,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -863,10 +863,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -874,10 +874,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -885,10 +885,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -896,10 +896,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -907,10 +907,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -918,10 +918,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -929,10 +929,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -940,235 +940,235 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
